--- a/Project_docs/Analiza ryzyka.xlsx
+++ b/Project_docs/Analiza ryzyka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Desktop\lipy\Project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8884B73-9496-47B0-98E1-26F7E1069154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E239D-4D2E-4097-8543-DEA5E4C3398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nr</t>
   </si>
@@ -64,17 +64,29 @@
     <t>Prawdopodobieństwo</t>
   </si>
   <si>
-    <t>6 - średni</t>
-  </si>
-  <si>
     <t>Skierować programistę na kurs</t>
+  </si>
+  <si>
+    <t>Tworzona aplikacja niezgodna ze specyfikacją</t>
+  </si>
+  <si>
+    <t>Stopień ryzyka</t>
+  </si>
+  <si>
+    <t>niski</t>
+  </si>
+  <si>
+    <t>średni</t>
+  </si>
+  <si>
+    <t>wysoki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +101,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +136,23 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -178,12 +227,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,13 +267,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Dane wyjściowe" xfId="4" builtinId="21"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -281,8 +358,10 @@
     <tableColumn id="2" xr3:uid="{CE5B7188-FED5-4A99-A68E-5611D70C8410}" name="Rodzaj ryzyka" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{D7BFC766-C4CE-43D7-8F45-82814927A4CE}" name="Waga(A)" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{6ECBB472-5FF9-4D8D-9151-10F592ABD024}" name="Prawdpodobieństwo ryzyka(B)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{8BE656D4-2DAD-49CF-AE56-276C228E1561}" name="Stopień ryzyka (A*B)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{2199FF33-5648-4A25-B298-FDC10B0B3EC5}" name="Działania minimalizujące ryzyko" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{8BE656D4-2DAD-49CF-AE56-276C228E1561}" name="Stopień ryzyka (A*B)" dataDxfId="0">
+      <calculatedColumnFormula>PRODUCT(Tabela3[[#This Row],[Waga(A)]],Tabela3[[#This Row],[Prawdpodobieństwo ryzyka(B)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{2199FF33-5648-4A25-B298-FDC10B0B3EC5}" name="Działania minimalizujące ryzyko" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,19 +688,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="36.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -651,7 +731,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -664,11 +744,12 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11">
+        <f>PRODUCT(Tabela3[[#This Row],[Waga(A)]],Tabela3[[#This Row],[Prawdpodobieństwo ryzyka(B)]])</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
@@ -690,10 +771,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <f>PRODUCT(Tabela3[[#This Row],[Waga(A)]],Tabela3[[#This Row],[Prawdpodobieństwo ryzyka(B)]])</f>
+        <v>8</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="H3" s="2">
         <v>1</v>
@@ -776,6 +866,20 @@
       <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="H9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
